--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/1.NhanBH/NBH210723_Qmaps.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/1.NhanBH/NBH210723_Qmaps.xlsx
@@ -919,7 +919,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
